--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H2">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J2">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>177.5542816881998</v>
+        <v>244.048355969784</v>
       </c>
       <c r="R2">
-        <v>177.5542816881998</v>
+        <v>2196.435203728056</v>
       </c>
       <c r="S2">
-        <v>0.0007062593971665676</v>
+        <v>0.0008584112430484295</v>
       </c>
       <c r="T2">
-        <v>0.0007062593971665676</v>
+        <v>0.0008584112430484296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H3">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J3">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>6217.490300568361</v>
+        <v>6604.640238595273</v>
       </c>
       <c r="R3">
-        <v>6217.490300568361</v>
+        <v>59441.76214735745</v>
       </c>
       <c r="S3">
-        <v>0.02473137178003761</v>
+        <v>0.02323104130151236</v>
       </c>
       <c r="T3">
-        <v>0.02473137178003761</v>
+        <v>0.02323104130151237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H4">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I4">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J4">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>8503.202700088712</v>
+        <v>9014.507781501768</v>
       </c>
       <c r="R4">
-        <v>8503.202700088712</v>
+        <v>81130.57003351591</v>
       </c>
       <c r="S4">
-        <v>0.0338232722739736</v>
+        <v>0.03170746551206739</v>
       </c>
       <c r="T4">
-        <v>0.0338232722739736</v>
+        <v>0.0317074655120674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H5">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I5">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J5">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>6212.786222159316</v>
+        <v>6763.826196412585</v>
       </c>
       <c r="R5">
-        <v>6212.786222159316</v>
+        <v>60874.43576771326</v>
       </c>
       <c r="S5">
-        <v>0.02471266032149205</v>
+        <v>0.02379095909068498</v>
       </c>
       <c r="T5">
-        <v>0.02471266032149205</v>
+        <v>0.02379095909068498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1527688580158</v>
+        <v>36.183528</v>
       </c>
       <c r="H6">
-        <v>34.1527688580158</v>
+        <v>108.550584</v>
       </c>
       <c r="I6">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="J6">
-        <v>0.08607746052263381</v>
+        <v>0.08181008990825493</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>528.9216365610915</v>
+        <v>631.7803678770241</v>
       </c>
       <c r="R6">
-        <v>528.9216365610915</v>
+        <v>5686.023310893217</v>
       </c>
       <c r="S6">
-        <v>0.002103896749963971</v>
+        <v>0.002222212760941757</v>
       </c>
       <c r="T6">
-        <v>0.002103896749963971</v>
+        <v>0.002222212760941757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H7">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I7">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J7">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>314.6474558236271</v>
+        <v>419.7427346377806</v>
       </c>
       <c r="R7">
-        <v>314.6474558236271</v>
+        <v>3777.684611740026</v>
       </c>
       <c r="S7">
-        <v>0.001251576252383657</v>
+        <v>0.001476395451094844</v>
       </c>
       <c r="T7">
-        <v>0.001251576252383657</v>
+        <v>0.001476395451094844</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H8">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I8">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J8">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>11018.13758632626</v>
+        <v>11359.42811018133</v>
       </c>
       <c r="R8">
-        <v>11018.13758632626</v>
+        <v>102234.852991632</v>
       </c>
       <c r="S8">
-        <v>0.04382695328790966</v>
+        <v>0.03995544557402108</v>
       </c>
       <c r="T8">
-        <v>0.04382695328790966</v>
+        <v>0.03995544557402109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H9">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I9">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J9">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>15068.69375661654</v>
+        <v>15504.19847159134</v>
       </c>
       <c r="R9">
-        <v>15068.69375661654</v>
+        <v>139537.7862443221</v>
       </c>
       <c r="S9">
-        <v>0.05993889005349127</v>
+        <v>0.05453418536495321</v>
       </c>
       <c r="T9">
-        <v>0.05993889005349127</v>
+        <v>0.05453418536495322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H10">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I10">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J10">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>11009.80139589859</v>
+        <v>11633.21462672908</v>
       </c>
       <c r="R10">
-        <v>11009.80139589859</v>
+        <v>104698.9316405617</v>
       </c>
       <c r="S10">
-        <v>0.04379379434197982</v>
+        <v>0.04091845728154003</v>
       </c>
       <c r="T10">
-        <v>0.04379379434197982</v>
+        <v>0.04091845728154003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.5227974697794</v>
+        <v>62.232638</v>
       </c>
       <c r="H11">
-        <v>60.5227974697794</v>
+        <v>186.697914</v>
       </c>
       <c r="I11">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="J11">
-        <v>0.1525395709959127</v>
+        <v>0.1407065035230363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>937.3124978549989</v>
+        <v>1086.609324817571</v>
       </c>
       <c r="R11">
-        <v>937.3124978549989</v>
+        <v>9779.483923358137</v>
       </c>
       <c r="S11">
-        <v>0.003728357060148311</v>
+        <v>0.003822019851427115</v>
       </c>
       <c r="T11">
-        <v>0.003728357060148311</v>
+        <v>0.003822019851427116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H12">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I12">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J12">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>1050.287110839939</v>
+        <v>1370.026420262579</v>
       </c>
       <c r="R12">
-        <v>1050.287110839939</v>
+        <v>12330.23778236322</v>
       </c>
       <c r="S12">
-        <v>0.004177737279556292</v>
+        <v>0.004818905981781738</v>
       </c>
       <c r="T12">
-        <v>0.004177737279556292</v>
+        <v>0.004818905981781738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H13">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I13">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J13">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>36778.32977256373</v>
+        <v>37076.79810932708</v>
       </c>
       <c r="R13">
-        <v>36778.32977256373</v>
+        <v>333691.1829839437</v>
       </c>
       <c r="S13">
-        <v>0.1462935208714282</v>
+        <v>0.1304132544831553</v>
       </c>
       <c r="T13">
-        <v>0.1462935208714282</v>
+        <v>0.1304132544831553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H14">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I14">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J14">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>50299.00778425486</v>
+        <v>50605.19165246547</v>
       </c>
       <c r="R14">
-        <v>50299.00778425486</v>
+        <v>455446.7248721892</v>
       </c>
       <c r="S14">
-        <v>0.2000748536054328</v>
+        <v>0.1779977795731403</v>
       </c>
       <c r="T14">
-        <v>0.2000748536054328</v>
+        <v>0.1779977795731403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H15">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I15">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J15">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>36750.50373044059</v>
+        <v>37970.42825519671</v>
       </c>
       <c r="R15">
-        <v>36750.50373044059</v>
+        <v>341733.8542967704</v>
       </c>
       <c r="S15">
-        <v>0.1461828369524117</v>
+        <v>0.133556492884796</v>
       </c>
       <c r="T15">
-        <v>0.1461828369524117</v>
+        <v>0.133556492884796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>202.023925247045</v>
+        <v>203.1252746666667</v>
       </c>
       <c r="H16">
-        <v>202.023925247045</v>
+        <v>609.375824</v>
       </c>
       <c r="I16">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="J16">
-        <v>0.5091741323338885</v>
+        <v>0.4592613794630246</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>3128.730956204255</v>
+        <v>3546.656941634553</v>
       </c>
       <c r="R16">
-        <v>3128.730956204255</v>
+        <v>31919.91247471098</v>
       </c>
       <c r="S16">
-        <v>0.01244518362505956</v>
+        <v>0.01247494654015125</v>
       </c>
       <c r="T16">
-        <v>0.01244518362505956</v>
+        <v>0.01247494654015125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H17">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I17">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J17">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>493.6838982985515</v>
+        <v>911.6917836709681</v>
       </c>
       <c r="R17">
-        <v>493.6838982985515</v>
+        <v>8205.226053038712</v>
       </c>
       <c r="S17">
-        <v>0.001963731254960486</v>
+        <v>0.003206768077531861</v>
       </c>
       <c r="T17">
-        <v>0.001963731254960486</v>
+        <v>0.003206768077531862</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H18">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I18">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J18">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>17287.52931235011</v>
+        <v>24672.96374811675</v>
       </c>
       <c r="R18">
-        <v>17287.52931235011</v>
+        <v>222056.6737330507</v>
       </c>
       <c r="S18">
-        <v>0.06876477387394482</v>
+        <v>0.08678423338091246</v>
       </c>
       <c r="T18">
-        <v>0.06876477387394482</v>
+        <v>0.08678423338091248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H19">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I19">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J19">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>23642.87820653303</v>
+        <v>33675.50928821134</v>
       </c>
       <c r="R19">
-        <v>23642.87820653303</v>
+        <v>303079.5835939021</v>
       </c>
       <c r="S19">
-        <v>0.0940445071257234</v>
+        <v>0.1184496231228925</v>
       </c>
       <c r="T19">
-        <v>0.0940445071257234</v>
+        <v>0.1184496231228925</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H20">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I20">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J20">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>17274.4497755189</v>
+        <v>25267.63495268657</v>
       </c>
       <c r="R20">
-        <v>17274.4497755189</v>
+        <v>227408.7145741791</v>
       </c>
       <c r="S20">
-        <v>0.06871274727278491</v>
+        <v>0.08887591904661345</v>
       </c>
       <c r="T20">
-        <v>0.06871274727278491</v>
+        <v>0.08887591904661345</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>94.9606616478186</v>
+        <v>135.170856</v>
       </c>
       <c r="H21">
-        <v>94.9606616478186</v>
+        <v>405.512568</v>
       </c>
       <c r="I21">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="J21">
-        <v>0.2393355759287091</v>
+        <v>0.3056180669374137</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>1470.649386481584</v>
+        <v>2360.142801164448</v>
       </c>
       <c r="R21">
-        <v>1470.649386481584</v>
+        <v>21241.28521048004</v>
       </c>
       <c r="S21">
-        <v>0.005849816401295467</v>
+        <v>0.008301523309463373</v>
       </c>
       <c r="T21">
-        <v>0.005849816401295467</v>
+        <v>0.008301523309463373</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H22">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I22">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J22">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>26.55401840698152</v>
+        <v>37.59897784276466</v>
       </c>
       <c r="R22">
-        <v>26.55401840698152</v>
+        <v>338.390800584882</v>
       </c>
       <c r="S22">
-        <v>0.0001056241778804206</v>
+        <v>0.0001322499599684009</v>
       </c>
       <c r="T22">
-        <v>0.0001056241778804206</v>
+        <v>0.0001322499599684009</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H23">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I23">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J23">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>929.8528332673478</v>
+        <v>1017.534910258201</v>
       </c>
       <c r="R23">
-        <v>929.8528332673478</v>
+        <v>9157.814192323805</v>
       </c>
       <c r="S23">
-        <v>0.003698684679597155</v>
+        <v>0.003579058763534794</v>
       </c>
       <c r="T23">
-        <v>0.003698684679597155</v>
+        <v>0.003579058763534794</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H24">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I24">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J24">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>1271.691106908727</v>
+        <v>1388.807873723513</v>
       </c>
       <c r="R24">
-        <v>1271.691106908727</v>
+        <v>12499.27086351161</v>
       </c>
       <c r="S24">
-        <v>0.00505841811308532</v>
+        <v>0.004884967524165789</v>
       </c>
       <c r="T24">
-        <v>0.00505841811308532</v>
+        <v>0.004884967524165789</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H25">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I25">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J25">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>929.1493177932405</v>
+        <v>1042.059678216865</v>
       </c>
       <c r="R25">
-        <v>929.1493177932405</v>
+        <v>9378.537103951781</v>
       </c>
       <c r="S25">
-        <v>0.003695886299237548</v>
+        <v>0.003665321735744602</v>
       </c>
       <c r="T25">
-        <v>0.003695886299237548</v>
+        <v>0.003665321735744602</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.10769576651335</v>
+        <v>5.574566</v>
       </c>
       <c r="H26">
-        <v>5.10769576651335</v>
+        <v>16.723698</v>
       </c>
       <c r="I26">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="J26">
-        <v>0.01287326021885594</v>
+        <v>0.01260396016827052</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>79.10254114715299</v>
+        <v>97.33438260179467</v>
       </c>
       <c r="R26">
-        <v>79.10254114715299</v>
+        <v>876.0094434161521</v>
       </c>
       <c r="S26">
-        <v>0.0003146469490554944</v>
+        <v>0.0003423621848569339</v>
       </c>
       <c r="T26">
-        <v>0.0003146469490554944</v>
+        <v>0.0003423621848569339</v>
       </c>
     </row>
   </sheetData>
